--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed2/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.038</v>
+        <v>-12.805</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.056</v>
+        <v>-12.63</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.21</v>
+        <v>-12.223</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.666</v>
+        <v>-12.465</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.428</v>
+        <v>16.408</v>
       </c>
     </row>
     <row r="28">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.982</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.284</v>
+        <v>16.617</v>
       </c>
     </row>
     <row r="40">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.626</v>
+        <v>17.273</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.684</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.524</v>
+        <v>16.673</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-11.806</v>
+        <v>-11.515</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.688</v>
+        <v>16.491</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.246</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="57">
@@ -1403,13 +1403,13 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.794</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.592</v>
+        <v>16.572</v>
       </c>
     </row>
     <row r="58">
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.006</v>
+        <v>-13.155</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.876</v>
+        <v>-10.697</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.036</v>
+        <v>16.778</v>
       </c>
     </row>
     <row r="74">
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.802</v>
+        <v>-12.078</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.08</v>
+        <v>-13.169</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.254</v>
+        <v>17.199</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.254</v>
+        <v>16.537</v>
       </c>
     </row>
     <row r="91">
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.13</v>
+        <v>-11.391</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
